--- a/macros/DAPHNE_VUV.xlsx
+++ b/macros/DAPHNE_VUV.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="23">
   <si>
     <t>Run</t>
   </si>
@@ -61,7 +61,13 @@
     <t>SiPM289 SiPM290 SiPM377 SiPM378 XARAPUCA</t>
   </si>
   <si>
-    <t>4 4 4 4 3</t>
+    <t>4 4 4 4 7</t>
+  </si>
+  <si>
+    <t>4 4 4 4 9</t>
+  </si>
+  <si>
+    <t>4 4 4 4 12</t>
   </si>
   <si>
     <t>Calibration</t>
@@ -96,7 +102,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -490,7 +496,7 @@
     <col min="11" max="11" style="13" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -555,10 +561,10 @@
         <v>30.0024512699321</v>
       </c>
       <c r="K2" s="7">
-        <v>25568.750521145834</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -588,10 +594,10 @@
         <v>36.2959758779142</v>
       </c>
       <c r="K3" s="7">
-        <v>25568.750521145834</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -608,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="5">
@@ -621,10 +627,10 @@
         <v>49.8538205102497</v>
       </c>
       <c r="K4" s="7">
-        <v>25568.750521145834</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -641,7 +647,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="5">
@@ -654,10 +660,10 @@
         <v>30.3498983494858</v>
       </c>
       <c r="K5" s="7">
-        <v>25568.750521145834</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -674,7 +680,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5">
@@ -687,10 +693,10 @@
         <v>35.5893816514318</v>
       </c>
       <c r="K6" s="7">
-        <v>25568.750521145834</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -707,7 +713,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5">
@@ -720,10 +726,10 @@
         <v>30.3596777963727</v>
       </c>
       <c r="K7" s="7">
-        <v>25568.750521145834</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -734,7 +740,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
@@ -753,10 +759,10 @@
         <v>463.151726407229</v>
       </c>
       <c r="K8" s="7">
-        <v>25568.750521145834</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -767,13 +773,13 @@
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5">
@@ -786,10 +792,10 @@
         <v>463.87171946372</v>
       </c>
       <c r="K9" s="7">
-        <v>25568.750521145834</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -800,13 +806,13 @@
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5">
@@ -819,10 +825,10 @@
         <v>463.374311595382</v>
       </c>
       <c r="K10" s="7">
-        <v>25568.750521145834</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -833,13 +839,13 @@
         <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5">
@@ -852,10 +858,10 @@
         <v>1.27938361575171</v>
       </c>
       <c r="K11" s="7">
-        <v>25568.750521145834</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -885,10 +891,10 @@
         <v>40.5211770696081</v>
       </c>
       <c r="K12" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -918,10 +924,10 @@
         <v>30.046236274956</v>
       </c>
       <c r="K13" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -938,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5">
@@ -951,10 +957,10 @@
         <v>38.5273165067196</v>
       </c>
       <c r="K14" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -971,7 +977,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5">
@@ -984,10 +990,10 @@
         <v>30.6537224418759</v>
       </c>
       <c r="K15" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="5">
@@ -1017,10 +1023,10 @@
         <v>58.1318679550782</v>
       </c>
       <c r="K16" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -1037,7 +1043,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="5">
@@ -1050,10 +1056,10 @@
         <v>29.756140470768</v>
       </c>
       <c r="K17" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -1064,7 +1070,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
@@ -1083,10 +1089,10 @@
         <v>460.898931432498</v>
       </c>
       <c r="K18" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -1097,13 +1103,13 @@
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="5">
@@ -1116,10 +1122,10 @@
         <v>462.531964449394</v>
       </c>
       <c r="K19" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -1130,13 +1136,13 @@
         <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="5">
@@ -1149,10 +1155,10 @@
         <v>462.395410211446</v>
       </c>
       <c r="K20" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -1163,7 +1169,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>14</v>
@@ -1182,10 +1188,10 @@
         <v>462.489273105342</v>
       </c>
       <c r="K21" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -1196,13 +1202,13 @@
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="5">
@@ -1215,10 +1221,10 @@
         <v>461.229663585006</v>
       </c>
       <c r="K22" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -1229,13 +1235,13 @@
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="5">
@@ -1248,10 +1254,10 @@
         <v>460.898883765813</v>
       </c>
       <c r="K23" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>14</v>
@@ -1281,10 +1287,10 @@
         <v>462.084258547571</v>
       </c>
       <c r="K24" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -1295,7 +1301,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>14</v>
@@ -1314,10 +1320,10 @@
         <v>459.896720258735</v>
       </c>
       <c r="K25" s="7">
-        <v>25568.750521157406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="16.5">
+        <v>25568.750520833335</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -1328,13 +1334,13 @@
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="5">
@@ -1347,7 +1353,7 @@
         <v>460.517777430629</v>
       </c>
       <c r="K26" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="16.5">
@@ -1361,13 +1367,13 @@
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="5">
@@ -1380,7 +1386,7 @@
         <v>463.8029728864</v>
       </c>
       <c r="K27" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="16.5">
@@ -1394,13 +1400,13 @@
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5">
@@ -1413,7 +1419,7 @@
         <v>461.246641481813</v>
       </c>
       <c r="K28" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="16.5">
@@ -1427,13 +1433,13 @@
         <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5">
@@ -1446,7 +1452,7 @@
         <v>461.982046108834</v>
       </c>
       <c r="K29" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="16.5">
@@ -1460,7 +1466,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>14</v>
@@ -1479,7 +1485,7 @@
         <v>457.737244362327</v>
       </c>
       <c r="K30" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="16.5">
@@ -1493,13 +1499,13 @@
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5">
@@ -1512,7 +1518,7 @@
         <v>460.680834579323</v>
       </c>
       <c r="K31" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="16.5">
@@ -1526,13 +1532,13 @@
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5">
@@ -1545,7 +1551,7 @@
         <v>459.456358335706</v>
       </c>
       <c r="K32" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="16.5">
@@ -1559,13 +1565,13 @@
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5">
@@ -1578,7 +1584,7 @@
         <v>1.35031825718078</v>
       </c>
       <c r="K33" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="16.5">
@@ -1611,7 +1617,7 @@
         <v>36.1933216563993</v>
       </c>
       <c r="K34" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="16.5">
@@ -1644,7 +1650,7 @@
         <v>31.7706174204955</v>
       </c>
       <c r="K35" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="16.5">
@@ -1664,7 +1670,7 @@
         <v>14</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5">
@@ -1677,7 +1683,7 @@
         <v>37.1918943322695</v>
       </c>
       <c r="K36" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="16.5">
@@ -1697,7 +1703,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5">
@@ -1710,7 +1716,7 @@
         <v>30.4618097312293</v>
       </c>
       <c r="K37" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="16.5">
@@ -1730,7 +1736,7 @@
         <v>14</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5">
@@ -1743,7 +1749,7 @@
         <v>52.7853472671495</v>
       </c>
       <c r="K38" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="16.5">
@@ -1763,7 +1769,7 @@
         <v>14</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="5">
@@ -1776,7 +1782,7 @@
         <v>29.8392202066231</v>
       </c>
       <c r="K39" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="16.5">
@@ -1790,7 +1796,7 @@
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>14</v>
@@ -1809,7 +1815,7 @@
         <v>461.271357099204</v>
       </c>
       <c r="K40" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="16.5">
@@ -1823,7 +1829,7 @@
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>14</v>
@@ -1842,7 +1848,7 @@
         <v>463.262661361365</v>
       </c>
       <c r="K41" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="16.5">
@@ -1856,13 +1862,13 @@
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="5">
@@ -1875,7 +1881,7 @@
         <v>457.605447629166</v>
       </c>
       <c r="K42" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="16.5">
@@ -1889,13 +1895,13 @@
         <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="5">
@@ -1908,7 +1914,7 @@
         <v>459.647768121285</v>
       </c>
       <c r="K43" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="16.5">
@@ -1922,13 +1928,13 @@
         <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="5">
@@ -1941,7 +1947,7 @@
         <v>460.703464413313</v>
       </c>
       <c r="K44" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="16.5">
@@ -1955,13 +1961,13 @@
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="5">
@@ -1974,7 +1980,7 @@
         <v>460.275086657912</v>
       </c>
       <c r="K45" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="16.5">
@@ -1988,13 +1994,13 @@
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="5">
@@ -2007,7 +2013,7 @@
         <v>1.16995859047377</v>
       </c>
       <c r="K46" s="7">
-        <v>25568.750521157406</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="16.5">
@@ -2021,7 +2027,7 @@
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>14</v>
@@ -2040,7 +2046,7 @@
         <v>458.391139369781</v>
       </c>
       <c r="K47" s="7">
-        <v>25568.750521168982</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="16.5">
@@ -2054,13 +2060,13 @@
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="5">
@@ -2073,7 +2079,7 @@
         <v>459.029144894617</v>
       </c>
       <c r="K48" s="7">
-        <v>25568.750521168982</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="16.5">
@@ -2087,13 +2093,13 @@
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="5">
@@ -2106,7 +2112,7 @@
         <v>457.537568171219</v>
       </c>
       <c r="K49" s="7">
-        <v>25568.750521168982</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="16.5">
@@ -2120,7 +2126,7 @@
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>14</v>
@@ -2139,7 +2145,7 @@
         <v>458.701487462568</v>
       </c>
       <c r="K50" s="7">
-        <v>25568.750521168982</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="16.5">
@@ -2153,13 +2159,13 @@
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5">
@@ -2172,7 +2178,7 @@
         <v>458.693090508187</v>
       </c>
       <c r="K51" s="7">
-        <v>25568.750521168982</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="16.5">
@@ -2186,13 +2192,13 @@
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5">
@@ -2205,7 +2211,7 @@
         <v>456.662231094066</v>
       </c>
       <c r="K52" s="7">
-        <v>25568.750521168982</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="16.5">
@@ -2238,7 +2244,7 @@
         <v>29.9745121863773</v>
       </c>
       <c r="K53" s="7">
-        <v>25568.750521168982</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="16.5">
@@ -2258,7 +2264,7 @@
         <v>14</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="5">
@@ -2271,7 +2277,7 @@
         <v>30.2104535494726</v>
       </c>
       <c r="K54" s="7">
-        <v>25568.750521168982</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="16.5">
@@ -2291,7 +2297,7 @@
         <v>14</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5">
@@ -2304,7 +2310,7 @@
         <v>30.025374787663</v>
       </c>
       <c r="K55" s="7">
-        <v>25568.750521168982</v>
+        <v>25568.750520833335</v>
       </c>
     </row>
   </sheetData>
